--- a/biology/Médecine/1635_en_santé_et_médecine/1635_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1635_en_santé_et_médecine/1635_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1635_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1635_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1635 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1635_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1635_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15 mai : à la suite d'un projet de Guy de La Brosse, après les lettres patentes que Louis XIII avait signées en janvier 1626, et un édit de 1633 déclarant un achat de propriété terrienne sur la terre d'Alez, un nouvel édit royal confirme en ce 15 mai 1635 l'inauguration du Jardin royal des plantes médicinales à Paris[1]. Surnommée le Jardin du roi, cette institution deviendra plus tard, en 1793, à la Révolution, l'actuel Muséum national d'histoire naturelle.
-Des « Règlements, statuts et ordonnances que les maîtres apothicaires observeront » précisent que les apothicaires ne pourront délivrer de poisons que s’ils en connaissent la destination[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15 mai : à la suite d'un projet de Guy de La Brosse, après les lettres patentes que Louis XIII avait signées en janvier 1626, et un édit de 1633 déclarant un achat de propriété terrienne sur la terre d'Alez, un nouvel édit royal confirme en ce 15 mai 1635 l'inauguration du Jardin royal des plantes médicinales à Paris. Surnommée le Jardin du roi, cette institution deviendra plus tard, en 1793, à la Révolution, l'actuel Muséum national d'histoire naturelle.
+Des « Règlements, statuts et ordonnances que les maîtres apothicaires observeront » précisent que les apothicaires ne pourront délivrer de poisons que s’ils en connaissent la destination.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1635_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1635_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Parution du Recueil des secrets de Louise Bourgeois (1563-1636), sage-femme de Marie de Médicis[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Parution du Recueil des secrets de Louise Bourgeois (1563-1636), sage-femme de Marie de Médicis.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1635_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1635_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>6 mai : Johann Joachim Becher (mort en 1682), médecin et chimiste allemand.
 Vers 1635 :
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1635_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1635_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>19 août : Daniel Mögling (né en 1596), médecin et astronome allemand.</t>
         </is>
